--- a/Anscombe_data.xlsx
+++ b/Anscombe_data.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03ecae56f5147ae1/Analytical/Pagina_Web/cgomez/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="38A6ACBBDE2B4AB3E5505EBC902E4343C93F93A6" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8895" xr2:uid="{C8535BB2-2D40-4DFC-A340-D42771DEF584}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171026"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,7 +49,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,12 +95,6 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -116,6 +111,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -136,7 +137,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -434,339 +435,339 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1AFADA-9FB0-45C8-BA10-AE5EF821099B}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{0DB97D30-EF40-5E8B-96DE-22AB786C867D}">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+    <row r="3" spans="1:8">
+      <c r="A3" s="3">
         <v>10</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <v>8.0399999999999991</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>10</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <v>9.14</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>10</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="5">
         <v>7.46</v>
       </c>
-      <c r="G3" s="6">
-        <v>8</v>
-      </c>
-      <c r="H3" s="8">
+      <c r="G3" s="4">
+        <v>8</v>
+      </c>
+      <c r="H3" s="6">
         <v>6.58</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>8</v>
-      </c>
-      <c r="B4" s="7">
+    <row r="4" spans="1:8">
+      <c r="A4" s="3">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5">
         <v>6.95</v>
       </c>
-      <c r="C4" s="6">
-        <v>8</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="C4" s="4">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6">
         <v>8.14</v>
       </c>
-      <c r="E4" s="5">
-        <v>8</v>
-      </c>
-      <c r="F4" s="7">
+      <c r="E4" s="3">
+        <v>8</v>
+      </c>
+      <c r="F4" s="5">
         <v>6.77</v>
       </c>
-      <c r="G4" s="6">
-        <v>8</v>
-      </c>
-      <c r="H4" s="8">
+      <c r="G4" s="4">
+        <v>8</v>
+      </c>
+      <c r="H4" s="6">
         <v>5.76</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+    <row r="5" spans="1:8">
+      <c r="A5" s="3">
         <v>13</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>7.58</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>13</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <v>8.74</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>13</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="5">
         <v>12.74</v>
       </c>
-      <c r="G5" s="6">
-        <v>8</v>
-      </c>
-      <c r="H5" s="8">
+      <c r="G5" s="4">
+        <v>8</v>
+      </c>
+      <c r="H5" s="6">
         <v>7.71</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+    <row r="6" spans="1:8">
+      <c r="A6" s="3">
         <v>9</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <v>8.81</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>9</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>8.77</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>9</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="5">
         <v>7.11</v>
       </c>
-      <c r="G6" s="6">
-        <v>8</v>
-      </c>
-      <c r="H6" s="8">
+      <c r="G6" s="4">
+        <v>8</v>
+      </c>
+      <c r="H6" s="6">
         <v>8.84</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+    <row r="7" spans="1:8">
+      <c r="A7" s="3">
         <v>11</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>8.33</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>11</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>9.26</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>11</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="5">
         <v>7.81</v>
       </c>
-      <c r="G7" s="6">
-        <v>8</v>
-      </c>
-      <c r="H7" s="8">
+      <c r="G7" s="4">
+        <v>8</v>
+      </c>
+      <c r="H7" s="6">
         <v>8.4700000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="8" spans="1:8">
+      <c r="A8" s="3">
         <v>14</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="5">
         <v>9.9600000000000009</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <v>14</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>0.81</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>14</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="5">
         <v>8.84</v>
       </c>
-      <c r="G8" s="6">
-        <v>8</v>
-      </c>
-      <c r="H8" s="8">
+      <c r="G8" s="4">
+        <v>8</v>
+      </c>
+      <c r="H8" s="6">
         <v>7.04</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+    <row r="9" spans="1:8">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <v>7.24</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="4">
         <v>6</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>6.13</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <v>6</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="5">
         <v>6.08</v>
       </c>
-      <c r="G9" s="6">
-        <v>8</v>
-      </c>
-      <c r="H9" s="8">
+      <c r="G9" s="4">
+        <v>8</v>
+      </c>
+      <c r="H9" s="6">
         <v>5.25</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+    <row r="10" spans="1:8">
+      <c r="A10" s="3">
         <v>4</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="5">
         <v>4.26</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <v>4</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>0.31</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="3">
         <v>4</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="5">
         <v>5.39</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="4">
         <v>19</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="6">
         <v>1.25</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+    <row r="11" spans="1:8">
+      <c r="A11" s="3">
         <v>12</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="5">
         <v>10.84</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="4">
         <v>12</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="6">
         <v>9.1300000000000008</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="3">
         <v>12</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="5">
         <v>8.15</v>
       </c>
-      <c r="G11" s="6">
-        <v>8</v>
-      </c>
-      <c r="H11" s="8">
+      <c r="G11" s="4">
+        <v>8</v>
+      </c>
+      <c r="H11" s="6">
         <v>5.56</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+    <row r="12" spans="1:8">
+      <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="5">
         <v>4.82</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="4">
         <v>7</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="6">
         <v>7.26</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="3">
         <v>7</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="5">
         <v>6.42</v>
       </c>
-      <c r="G12" s="6">
-        <v>8</v>
-      </c>
-      <c r="H12" s="8">
+      <c r="G12" s="4">
+        <v>8</v>
+      </c>
+      <c r="H12" s="6">
         <v>7.91</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+    <row r="13" spans="1:8">
+      <c r="A13" s="3">
         <v>5</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="5">
         <v>5.68</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="4">
         <v>5</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="6">
         <v>4.74</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="3">
         <v>5</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="5">
         <v>5.73</v>
       </c>
-      <c r="G13" s="6">
-        <v>8</v>
-      </c>
-      <c r="H13" s="8">
+      <c r="G13" s="4">
+        <v>8</v>
+      </c>
+      <c r="H13" s="6">
         <v>6.89</v>
       </c>
     </row>

--- a/Anscombe_data.xlsx
+++ b/Anscombe_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19105"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03ecae56f5147ae1/Analytical/Pagina_Web/cgomez/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="38A6ACBBDE2B4AB3E5505EBC902E4343C93F93A6" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="38A6ACBBDE2B4AB3E5505EBC902E4343C93F93A6" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{2147B2EB-4D71-4272-9402-655C3EB4235B}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8895" xr2:uid="{C8535BB2-2D40-4DFC-A340-D42771DEF584}"/>
   </bookViews>
@@ -134,6 +134,1656 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1028089671"/>
+        <c:axId val="1028090103"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1028089671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1028090103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1028090103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1028089671"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1713679847"/>
+        <c:axId val="1713678119"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1713679847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1713678119"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1713678119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1713679847"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6DF2172-7C2A-447E-84FC-8315AD497F94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2" descr="lineal">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F8D1510-819A-4C6F-9C72-76DFA6854559}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F6DF2172-7C2A-447E-84FC-8315AD497F94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,7 +2086,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{0DB97D30-EF40-5E8B-96DE-22AB786C867D}">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -779,5 +2429,6 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>